--- a/war/CMPE 202 -  Sprint Task Sheet.xlsx
+++ b/war/CMPE 202 -  Sprint Task Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapka\war\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapka\git repo\sp19-202-cavka\war\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC5F644-5498-48D4-B35C-02C63F0B0711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91401662-36EF-4EF5-8969-3EDF91785A14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,43 +961,61 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>123</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -1479,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:AG998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1753,7 @@
         <v>154</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ref="G4:AF4" si="0">F4-6</f>
+        <f t="shared" ref="G4:AE4" si="0">F4-6</f>
         <v>148</v>
       </c>
       <c r="H4" s="12">
@@ -1853,48 +1871,48 @@
         <v>160</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="E5:AF5" si="1">SUM(F6:F13)</f>
-        <v>159</v>
+        <f t="shared" ref="F5:X5" si="1">SUM(F6:F13)</f>
+        <v>160</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K5" s="13">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P5" s="12">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="12">
         <f t="shared" si="1"/>
@@ -1904,12 +1922,30 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="S5" s="12">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -1942,10 +1978,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" s="25">
         <v>16</v>
@@ -1966,24 +2002,38 @@
         <v>14</v>
       </c>
       <c r="O6" s="23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P6" s="23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="23">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R6" s="24">
-        <v>16</v>
+        <v>10</v>
       </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="28"/>
+      <c r="S6" s="25">
+        <v>10</v>
+      </c>
+      <c r="T6" s="25">
+        <v>10</v>
+      </c>
+      <c r="U6" s="25">
+        <v>10</v>
+      </c>
+      <c r="V6" s="25">
+        <v>10</v>
+      </c>
+      <c r="W6" s="25">
+        <v>8</v>
+      </c>
+      <c r="X6" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>4</v>
+      </c>
       <c r="Z6" s="29"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
@@ -2037,20 +2087,32 @@
         <v>24</v>
       </c>
       <c r="P7" s="23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R7" s="23">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="S7" s="25">
+        <v>20</v>
+      </c>
+      <c r="T7" s="25">
+        <v>20</v>
+      </c>
+      <c r="U7" s="25">
+        <v>20</v>
+      </c>
+      <c r="V7" s="25">
+        <v>20</v>
+      </c>
+      <c r="W7" s="25">
+        <v>20</v>
+      </c>
+      <c r="X7" s="25">
+        <v>20</v>
+      </c>
       <c r="Y7" s="28"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="30"/>
@@ -2105,20 +2167,32 @@
         <v>8</v>
       </c>
       <c r="P8" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R8" s="23">
         <v>6</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
+      <c r="S8" s="25">
+        <v>3</v>
+      </c>
+      <c r="T8" s="25">
+        <v>3</v>
+      </c>
+      <c r="U8" s="25">
+        <v>3</v>
+      </c>
+      <c r="V8" s="25">
+        <v>3</v>
+      </c>
+      <c r="W8" s="25">
+        <v>3</v>
+      </c>
+      <c r="X8" s="25">
+        <v>3</v>
+      </c>
       <c r="Y8" s="25"/>
       <c r="Z8" s="30"/>
       <c r="AA8" s="30"/>
@@ -2179,14 +2253,26 @@
         <v>28</v>
       </c>
       <c r="R9" s="24">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
+      <c r="S9" s="25">
+        <v>22</v>
+      </c>
+      <c r="T9" s="25">
+        <v>22</v>
+      </c>
+      <c r="U9" s="25">
+        <v>22</v>
+      </c>
+      <c r="V9" s="25">
+        <v>22</v>
+      </c>
+      <c r="W9" s="25">
+        <v>22</v>
+      </c>
+      <c r="X9" s="25">
+        <v>22</v>
+      </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="30"/>
@@ -2249,12 +2335,24 @@
       <c r="R10" s="24">
         <v>36</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="S10" s="25">
+        <v>32</v>
+      </c>
+      <c r="T10" s="25">
+        <v>32</v>
+      </c>
+      <c r="U10" s="25">
+        <v>30</v>
+      </c>
+      <c r="V10" s="25">
+        <v>28</v>
+      </c>
+      <c r="W10" s="25">
+        <v>26</v>
+      </c>
+      <c r="X10" s="25">
+        <v>24</v>
+      </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="29"/>
       <c r="AA10" s="30"/>
@@ -2281,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="19">
         <v>8</v>
@@ -2319,12 +2417,24 @@
       <c r="R11" s="24">
         <v>1</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="25">
+        <v>1</v>
+      </c>
+      <c r="U11" s="25">
+        <v>1</v>
+      </c>
+      <c r="V11" s="25">
+        <v>1</v>
+      </c>
+      <c r="W11" s="25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="25">
+        <v>1</v>
+      </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="29"/>
       <c r="AA11" s="30"/>
@@ -2369,30 +2479,42 @@
       <c r="L12" s="21">
         <v>5</v>
       </c>
-      <c r="M12" s="22">
-        <v>2</v>
+      <c r="M12" s="21">
+        <v>5</v>
       </c>
-      <c r="N12" s="22">
-        <v>1</v>
+      <c r="N12" s="21">
+        <v>5</v>
       </c>
-      <c r="O12" s="22">
-        <v>0</v>
+      <c r="O12" s="21">
+        <v>5</v>
       </c>
-      <c r="P12" s="23">
-        <v>0</v>
+      <c r="P12" s="21">
+        <v>5</v>
       </c>
-      <c r="Q12" s="23">
-        <v>0</v>
+      <c r="Q12" s="21">
+        <v>5</v>
       </c>
-      <c r="R12" s="24">
-        <v>0</v>
+      <c r="R12" s="21">
+        <v>5</v>
       </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
+      <c r="S12" s="25">
+        <v>5</v>
+      </c>
+      <c r="T12" s="25">
+        <v>5</v>
+      </c>
+      <c r="U12" s="25">
+        <v>5</v>
+      </c>
+      <c r="V12" s="25">
+        <v>5</v>
+      </c>
+      <c r="W12" s="25">
+        <v>5</v>
+      </c>
+      <c r="X12" s="25">
+        <v>5</v>
+      </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="30"/>
@@ -2419,48 +2541,60 @@
       <c r="F13" s="19">
         <v>10</v>
       </c>
-      <c r="G13" s="19">
-        <v>5</v>
+      <c r="G13" s="26">
+        <v>10</v>
       </c>
-      <c r="H13" s="19">
-        <v>5</v>
+      <c r="H13" s="26">
+        <v>10</v>
       </c>
-      <c r="I13" s="19">
-        <v>5</v>
+      <c r="I13" s="26">
+        <v>10</v>
       </c>
-      <c r="J13" s="19">
-        <v>5</v>
+      <c r="J13" s="26">
+        <v>10</v>
       </c>
-      <c r="K13" s="20">
-        <v>5</v>
+      <c r="K13" s="26">
+        <v>10</v>
       </c>
       <c r="L13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="S13" s="25">
+        <v>10</v>
+      </c>
+      <c r="T13" s="25">
+        <v>10</v>
+      </c>
+      <c r="U13" s="25">
+        <v>10</v>
+      </c>
+      <c r="V13" s="25">
+        <v>10</v>
+      </c>
+      <c r="W13" s="25">
+        <v>10</v>
+      </c>
+      <c r="X13" s="25">
+        <v>10</v>
+      </c>
       <c r="Y13" s="28"/>
       <c r="Z13" s="29"/>
       <c r="AA13" s="30"/>

--- a/war/CMPE 202 -  Sprint Task Sheet.xlsx
+++ b/war/CMPE 202 -  Sprint Task Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapka\git repo\sp19-202-cavka\war\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91401662-36EF-4EF5-8969-3EDF91785A14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1432F32-A52C-4D68-B8AE-9E5D0532E6B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:AG998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="S5" sqref="S5:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
